--- a/Documents/Sprint Backlogs/Sprint 2/Sprint 2 backlog.xlsx
+++ b/Documents/Sprint Backlogs/Sprint 2/Sprint 2 backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ratha\capstone1\2025S-RushHour\Documents\Sprint Backlogs\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01265F74-B770-445C-B1FD-B2496F2F125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EF210-648B-42AC-AE43-16A8D8FE5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A313EC4A-4011-4362-BE3B-827DC2304A04}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>US_2</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>Receive notifications for appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story </t>
+  </si>
+  <si>
+    <t>User Story Num</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Points</t>
   </si>
 </sst>
 </file>
@@ -286,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -299,6 +314,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CB9ACA-57EA-4622-9C10-C3139B156001}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -628,228 +649,245 @@
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
